--- a/SSIS/Exercices/Ex_3/List of mentors.xlsx
+++ b/SSIS/Exercices/Ex_3/List of mentors.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C12" sqref="C12"/>
@@ -515,6 +515,126 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Cheryl Cole</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Dannii Minogue</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Gary Barlow</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Kelly Rowland</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Louis Walsh</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Nicole Scherzinger</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Sharon Osbourne</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Simon Cowell</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>David Wakefield</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
